--- a/LuBan/cfgs/Datas/常量表.xlsx
+++ b/LuBan/cfgs/Datas/常量表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28830" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,24 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>##var#column</t>
   </si>
@@ -264,6 +251,26 @@
   </si>
   <si>
     <t>第一个特殊天赋ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCoinAdReceiveNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中观看视频获得银币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuideUpEquip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器上阵引导中的武器ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,6 +1152,34 @@
       </c>
       <c r="D35" s="3">
         <v>2001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
